--- a/tool/mtk_dial_num.xlsx
+++ b/tool/mtk_dial_num.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="92" windowWidth="19196" windowHeight="11639" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="92" windowWidth="19196" windowHeight="11639" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="128X160" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>hex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>=7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -973,7 +977,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -1226,8 +1230,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
@@ -1338,21 +1342,52 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6">
+        <v>272</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C11">
+        <f>59+4+C10</f>
+        <v>63</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C12">
+        <f t="shared" ref="C12:C14" si="1">59+4+C11</f>
+        <v>126</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
@@ -1450,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
@@ -1486,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="9">
-        <f>+INT(G3*7/100)</f>
+        <f t="shared" ref="H3:H9" si="1">+INT(G3*7/100)</f>
         <v>0</v>
       </c>
     </row>
@@ -1506,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G9" si="1">INT(100/6*ROW(A1)+1)</f>
+        <f t="shared" ref="G4:G7" si="2">INT(100/6*ROW(A1)+1)</f>
         <v>17</v>
       </c>
       <c r="H4" s="9">
-        <f>+INT(G4*7/100)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1519,7 +1554,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="9">
-        <f t="shared" ref="B5:B7" si="2">+INT(A5*5/100)</f>
+        <f t="shared" ref="B5:B7" si="3">+INT(A5*5/100)</f>
         <v>2</v>
       </c>
       <c r="D5">
@@ -1530,11 +1565,11 @@
         <v>0</v>
       </c>
       <c r="G5">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H5" s="9">
         <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="H5" s="9">
-        <f>+INT(G5*7/100)</f>
         <v>2</v>
       </c>
     </row>
@@ -1543,7 +1578,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D6" t="s">
@@ -1553,11 +1588,11 @@
         <v>27</v>
       </c>
       <c r="G6">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="H6" s="9">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="H6" s="9">
-        <f>+INT(G6*7/100)</f>
         <v>3</v>
       </c>
     </row>
@@ -1566,7 +1601,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1576,15 +1611,15 @@
         <v>30</v>
       </c>
       <c r="E7" s="9">
-        <f t="shared" ref="E7:E8" si="3">+INT(D7*6/100)</f>
+        <f t="shared" ref="E7:E8" si="4">+INT(D7*6/100)</f>
         <v>1</v>
       </c>
       <c r="G7">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="H7" s="9">
-        <f>+INT(G7*7/100)</f>
         <v>4</v>
       </c>
     </row>
@@ -1593,7 +1628,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G8">
@@ -1601,7 +1636,7 @@
         <v>84</v>
       </c>
       <c r="H8" s="9">
-        <f>+INT(G8*7/100)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1614,11 +1649,11 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9" si="4">INT(100/6*ROW(A6)+0.5)</f>
+        <f t="shared" ref="G9" si="5">INT(100/6*ROW(A6)+0.5)</f>
         <v>100</v>
       </c>
       <c r="H9" s="9">
-        <f>+INT(G9*7/100)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I9" s="10" t="s">
